--- a/21_22.РР.12_Этап_3_2.xlsx
+++ b/21_22.РР.12_Этап_3_2.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Проекты\Python\Excel\venv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Проекты\Python\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23085" windowHeight="11445"/>
   </bookViews>
   <sheets>
-    <sheet name="Результаты2" sheetId="7" r:id="rId1"/>
-    <sheet name="Результаты" sheetId="6" r:id="rId2"/>
+    <sheet name="Результаты2" sheetId="13" r:id="rId1"/>
+    <sheet name="Результаты" sheetId="12" r:id="rId2"/>
     <sheet name="Лист1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
